--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_38_9.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_38_9.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_38_9_24</t>
+          <t>model_38_9_1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9964251467542591</v>
+        <v>0.9887472377878636</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7364312700270605</v>
+        <v>0.7790099065275011</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9946038693246997</v>
+        <v>0.9417894762715286</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9929634682144898</v>
+        <v>0.9991450379677124</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9933356888321875</v>
+        <v>0.9936225932144497</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02390506011495548</v>
+        <v>0.07524727272676202</v>
       </c>
       <c r="H2" t="n">
-        <v>1.762485310951455</v>
+        <v>1.477761772616415</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02369155528004065</v>
+        <v>0.08448632286672676</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1160964741353779</v>
+        <v>0.01158081708265534</v>
       </c>
       <c r="K2" t="n">
-        <v>0.06989401470770928</v>
+        <v>0.048033567595988</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2231997247277459</v>
+        <v>0.2614711075180371</v>
       </c>
       <c r="M2" t="n">
-        <v>0.154612613052608</v>
+        <v>0.2743123634230911</v>
       </c>
       <c r="N2" t="n">
-        <v>1.001175294217778</v>
+        <v>1.003699538261524</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1611947920824889</v>
+        <v>0.285990408638886</v>
       </c>
       <c r="P2" t="n">
-        <v>201.4673302443265</v>
+        <v>199.1739512376873</v>
       </c>
       <c r="Q2" t="n">
-        <v>319.6982852565419</v>
+        <v>317.4049062499028</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_38_9_23</t>
+          <t>model_38_9_0</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9964275088088822</v>
+        <v>0.9870540977716551</v>
       </c>
       <c r="C3" t="n">
-        <v>0.736261852725935</v>
+        <v>0.7788745165872726</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9946797787107803</v>
+        <v>0.9480341282105995</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9930860058694351</v>
+        <v>0.9997301553762549</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9934479639420689</v>
+        <v>0.9947504125855425</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02388926504481438</v>
+        <v>0.0865693078113412</v>
       </c>
       <c r="H3" t="n">
-        <v>1.763618205224176</v>
+        <v>1.478667125770137</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02335827732129244</v>
+        <v>0.07542288130802069</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1140747125457744</v>
+        <v>0.003655157902121862</v>
       </c>
       <c r="K3" t="n">
-        <v>0.06871649493353341</v>
+        <v>0.03953901960507127</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2423595283328842</v>
+        <v>0.2383007907353879</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1545615251115697</v>
+        <v>0.2942266266185662</v>
       </c>
       <c r="N3" t="n">
-        <v>1.001174517651874</v>
+        <v>1.004256187033976</v>
       </c>
       <c r="O3" t="n">
-        <v>0.161141529222034</v>
+        <v>0.3067524632468003</v>
       </c>
       <c r="P3" t="n">
-        <v>201.4686521645053</v>
+        <v>198.8936198789939</v>
       </c>
       <c r="Q3" t="n">
-        <v>319.6996071767208</v>
+        <v>317.1245748912094</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_38_9_22</t>
+          <t>model_38_9_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9964229062293408</v>
+        <v>0.9899399508055999</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7360672136488549</v>
+        <v>0.7787949892528615</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9947636425016533</v>
+        <v>0.9347750123260707</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9932208756722688</v>
+        <v>0.9983294811341824</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9935716042955853</v>
+        <v>0.9922133872673394</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02392004251539994</v>
+        <v>0.06727159528522013</v>
       </c>
       <c r="H4" t="n">
-        <v>1.764919757628842</v>
+        <v>1.479198925421533</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02299007577892504</v>
+        <v>0.09466706386808464</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1118494815578943</v>
+        <v>0.02262787432372309</v>
       </c>
       <c r="K4" t="n">
-        <v>0.06741977866840967</v>
+        <v>0.05864747249390889</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2636442040468124</v>
+        <v>0.2848180897173688</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1546610568805216</v>
+        <v>0.2593676835791617</v>
       </c>
       <c r="N4" t="n">
-        <v>1.00117603082871</v>
+        <v>1.003307413433775</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1612452982644494</v>
+        <v>0.2704095028342483</v>
       </c>
       <c r="P4" t="n">
-        <v>201.4660771450033</v>
+        <v>199.3980343851304</v>
       </c>
       <c r="Q4" t="n">
-        <v>319.6970321572187</v>
+        <v>317.6289893973458</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_38_9_21</t>
+          <t>model_38_9_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9964088792371656</v>
+        <v>0.9907418427984127</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7358429951377754</v>
+        <v>0.7783240420412321</v>
       </c>
       <c r="D5" t="n">
-        <v>0.994856115371232</v>
+        <v>0.9272844631899958</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9933691866229911</v>
+        <v>0.9973560460325227</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9937076192473255</v>
+        <v>0.9906163450076151</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02401384107666434</v>
+        <v>0.06190933983690815</v>
       </c>
       <c r="H5" t="n">
-        <v>1.766419107844861</v>
+        <v>1.482348151594212</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02258407632610294</v>
+        <v>0.1055387913878626</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1094024836647007</v>
+        <v>0.03581345851158946</v>
       </c>
       <c r="K5" t="n">
-        <v>0.06599327999540179</v>
+        <v>0.07067612926862284</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2872953008657279</v>
+        <v>0.3059636531477168</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1549639992923012</v>
+        <v>0.2488158753715449</v>
       </c>
       <c r="N5" t="n">
-        <v>1.001180642442576</v>
+        <v>1.003043777710111</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1615611375618757</v>
+        <v>0.2594084823059791</v>
       </c>
       <c r="P5" t="n">
-        <v>201.4582498066814</v>
+        <v>199.5641684495572</v>
       </c>
       <c r="Q5" t="n">
-        <v>319.6892048188969</v>
+        <v>317.7951234617727</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_38_9_20</t>
+          <t>model_38_9_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9963822664865364</v>
+        <v>0.9912409972622378</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7355839826187993</v>
+        <v>0.7776717198959384</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9949580660392239</v>
+        <v>0.9195510040862872</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9935320119408487</v>
+        <v>0.9962817678132039</v>
       </c>
       <c r="F6" t="n">
-        <v>0.993857034809861</v>
+        <v>0.9889052196860352</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02419180066266237</v>
+        <v>0.05857149163891466</v>
       </c>
       <c r="H6" t="n">
-        <v>1.768151125751897</v>
+        <v>1.486710232783458</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0221364648741375</v>
+        <v>0.1167630766349817</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1067160117095598</v>
+        <v>0.05036500476040258</v>
       </c>
       <c r="K6" t="n">
-        <v>0.06442623829184863</v>
+        <v>0.08356404069769212</v>
       </c>
       <c r="L6" t="n">
-        <v>0.313576821064735</v>
+        <v>0.3255521502222076</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1555371359600735</v>
+        <v>0.2420154780978164</v>
       </c>
       <c r="N6" t="n">
-        <v>1.001189391840043</v>
+        <v>1.002879672132963</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1621586738441514</v>
+        <v>0.252318578041545</v>
       </c>
       <c r="P6" t="n">
-        <v>201.4434830376459</v>
+        <v>199.6750143831554</v>
       </c>
       <c r="Q6" t="n">
-        <v>319.6744380498614</v>
+        <v>317.9059693953709</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_38_9_19</t>
+          <t>model_38_9_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9963390912005919</v>
+        <v>0.9915077467490311</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7352840292532847</v>
+        <v>0.776896501573803</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9950702941166238</v>
+        <v>0.9117566505891558</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9937105280819888</v>
+        <v>0.9951509514660135</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9940209437350029</v>
+        <v>0.987137385304333</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02448051399857694</v>
+        <v>0.05678773659246018</v>
       </c>
       <c r="H7" t="n">
-        <v>1.770156915288252</v>
+        <v>1.49189412127313</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02164373075413838</v>
+        <v>0.1280757435535574</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1037706552194075</v>
+        <v>0.06568238351679902</v>
       </c>
       <c r="K7" t="n">
-        <v>0.06270719298677294</v>
+        <v>0.09687907533910767</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3427735494108683</v>
+        <v>0.3436649103073006</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1564625002950449</v>
+        <v>0.2383017763099138</v>
       </c>
       <c r="N7" t="n">
-        <v>1.0012035864546</v>
+        <v>1.002791973671551</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1631234328546309</v>
+        <v>0.2484467762801089</v>
       </c>
       <c r="P7" t="n">
-        <v>201.4197556497691</v>
+        <v>199.7368697632564</v>
       </c>
       <c r="Q7" t="n">
-        <v>319.6507106619846</v>
+        <v>317.9678247754719</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_38_9_18</t>
+          <t>model_38_9_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9962743457653256</v>
+        <v>0.9915984096709077</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7349358240081221</v>
+        <v>0.7760442133846536</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9951936644547917</v>
+        <v>0.9040430792892115</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9939059947922529</v>
+        <v>0.9939977546324854</v>
       </c>
       <c r="F8" t="n">
-        <v>0.994200517944649</v>
+        <v>0.9853572153055156</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02491346702232833</v>
+        <v>0.05618147321640638</v>
       </c>
       <c r="H8" t="n">
-        <v>1.772485365365992</v>
+        <v>1.497593376318398</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0211020768612848</v>
+        <v>0.1392711637896386</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1005456295158002</v>
+        <v>0.08130291528901487</v>
       </c>
       <c r="K8" t="n">
-        <v>0.06082385318854248</v>
+        <v>0.1102870197977063</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3752176224765107</v>
+        <v>0.3600628520821912</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1578400045056016</v>
+        <v>0.2370263133418026</v>
       </c>
       <c r="N8" t="n">
-        <v>1.001224872625099</v>
+        <v>1.002762166683537</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1645595802712578</v>
+        <v>0.2471170142128728</v>
       </c>
       <c r="P8" t="n">
-        <v>201.3846935548896</v>
+        <v>199.7583364690054</v>
       </c>
       <c r="Q8" t="n">
-        <v>319.6156485671051</v>
+        <v>317.9892914812209</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_38_9_17</t>
+          <t>model_38_9_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9961816650315929</v>
+        <v>0.9915576654763669</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7345303859184008</v>
+        <v>0.7751501760561639</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9953293246100912</v>
+        <v>0.8965166028549993</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9941194923428763</v>
+        <v>0.9928481380821617</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9943968473625228</v>
+        <v>0.9835982874853034</v>
       </c>
       <c r="G9" t="n">
-        <v>0.025533223515554</v>
+        <v>0.05645392983291009</v>
       </c>
       <c r="H9" t="n">
-        <v>1.775196531738829</v>
+        <v>1.503571808050672</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02050646488263422</v>
+        <v>0.150195035923753</v>
       </c>
       <c r="J9" t="n">
-        <v>0.09702311109060777</v>
+        <v>0.09687495063293532</v>
       </c>
       <c r="K9" t="n">
-        <v>0.05876478798662099</v>
+        <v>0.1235349716987913</v>
       </c>
       <c r="L9" t="n">
-        <v>0.4112689916106243</v>
+        <v>0.3749004029361804</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1597911872274375</v>
+        <v>0.2376003573922188</v>
       </c>
       <c r="N9" t="n">
-        <v>1.001255343003312</v>
+        <v>1.002775562035167</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1665938288810674</v>
+        <v>0.2477154965069503</v>
       </c>
       <c r="P9" t="n">
-        <v>201.3355495837407</v>
+        <v>199.7486607492751</v>
       </c>
       <c r="Q9" t="n">
-        <v>319.5665045959562</v>
+        <v>317.9796157614905</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_38_9_16</t>
+          <t>model_38_9_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.996053036585303</v>
+        <v>0.9914208898859584</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7340569977500566</v>
+        <v>0.7742413212087036</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9954779405251717</v>
+        <v>0.8892554531790404</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9943521133165998</v>
+        <v>0.9917213242666139</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9946109307883366</v>
+        <v>0.9818854233490354</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02639336252817418</v>
+        <v>0.05736854883576549</v>
       </c>
       <c r="H10" t="n">
-        <v>1.778362080600298</v>
+        <v>1.50964932460053</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0198539710162902</v>
+        <v>0.1607338147667037</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0931850733068741</v>
+        <v>0.1121381134299462</v>
       </c>
       <c r="K10" t="n">
-        <v>0.05651952216158215</v>
+        <v>0.1364359795909944</v>
       </c>
       <c r="L10" t="n">
-        <v>0.4513194700482257</v>
+        <v>0.388322455212483</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1624603414011376</v>
+        <v>0.2395173247090187</v>
       </c>
       <c r="N10" t="n">
-        <v>1.001297631807572</v>
+        <v>1.002820529352562</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1693766144738527</v>
+        <v>0.2497140730910957</v>
       </c>
       <c r="P10" t="n">
-        <v>201.2692854396567</v>
+        <v>199.7165181110309</v>
       </c>
       <c r="Q10" t="n">
-        <v>319.5002404518722</v>
+        <v>317.9474731232464</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_38_9_15</t>
+          <t>model_38_9_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9958785206798382</v>
+        <v>0.9912159218404243</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7335028282442558</v>
+        <v>0.7733378716173342</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9956407107861349</v>
+        <v>0.8823147966055704</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9946050538693818</v>
+        <v>0.9906313392646745</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9948439599801918</v>
+        <v>0.9802365605652998</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02756035119158948</v>
+        <v>0.05873917110004379</v>
       </c>
       <c r="H11" t="n">
-        <v>1.782067814637304</v>
+        <v>1.51569069617802</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0191393329047244</v>
+        <v>0.1708074322951857</v>
       </c>
       <c r="J11" t="n">
-        <v>0.08901178066229168</v>
+        <v>0.1269024145960723</v>
       </c>
       <c r="K11" t="n">
-        <v>0.05407555678350803</v>
+        <v>0.1488549399368384</v>
       </c>
       <c r="L11" t="n">
-        <v>0.4958207819542191</v>
+        <v>0.400462008867683</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1660131054814332</v>
+        <v>0.2423616535263856</v>
       </c>
       <c r="N11" t="n">
-        <v>1.001355006899779</v>
+        <v>1.002887916107258</v>
       </c>
       <c r="O11" t="n">
-        <v>0.173080627076282</v>
+        <v>0.2526794908747903</v>
       </c>
       <c r="P11" t="n">
-        <v>201.1827541802342</v>
+        <v>199.6692969292972</v>
       </c>
       <c r="Q11" t="n">
-        <v>319.4137091924496</v>
+        <v>317.9002519415126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_38_9_14</t>
+          <t>model_38_9_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.99564549278368</v>
+        <v>0.9909646260657377</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7328521940382535</v>
+        <v>0.7724548485329447</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9958184806917724</v>
+        <v>0.8757327882649262</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9948790936191715</v>
+        <v>0.9895880823086149</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9950967251059787</v>
+        <v>0.9786642744337767</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02911860980619442</v>
+        <v>0.06041958710248384</v>
       </c>
       <c r="H12" t="n">
-        <v>1.786418608568737</v>
+        <v>1.521595475609281</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01835883928810127</v>
+        <v>0.180360510435714</v>
       </c>
       <c r="J12" t="n">
-        <v>0.08449037015874772</v>
+        <v>0.1410337649041164</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0514246047234245</v>
+        <v>0.1606971376699152</v>
       </c>
       <c r="L12" t="n">
-        <v>0.5452689476154182</v>
+        <v>0.4114281817752222</v>
       </c>
       <c r="M12" t="n">
-        <v>0.1706417586823179</v>
+        <v>0.2458039607135813</v>
       </c>
       <c r="N12" t="n">
-        <v>1.001431618810845</v>
+        <v>1.002970533896196</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1779063316265614</v>
+        <v>0.2562683442055032</v>
       </c>
       <c r="P12" t="n">
-        <v>201.0727555939303</v>
+        <v>199.6128838736714</v>
       </c>
       <c r="Q12" t="n">
-        <v>319.3037106061458</v>
+        <v>317.8438388858869</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_38_9_13</t>
+          <t>model_38_9_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.995338354509517</v>
+        <v>0.9906838396250677</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7320862206314142</v>
+        <v>0.7716028905104148</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9960121690797797</v>
+        <v>0.8695310765505604</v>
       </c>
       <c r="E13" t="n">
-        <v>0.995175052492508</v>
+        <v>0.9885978982955435</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9953700634323761</v>
+        <v>0.9771763468448286</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03117244485976359</v>
+        <v>0.06229720732414675</v>
       </c>
       <c r="H13" t="n">
-        <v>1.791540676267255</v>
+        <v>1.527292522828844</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01750845603615709</v>
+        <v>0.1893616288704206</v>
       </c>
       <c r="J13" t="n">
-        <v>0.07960731374248692</v>
+        <v>0.1544462200781417</v>
       </c>
       <c r="K13" t="n">
-        <v>0.048557884889322</v>
+        <v>0.171903960885836</v>
       </c>
       <c r="L13" t="n">
-        <v>0.6002096410642216</v>
+        <v>0.4213445291001161</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1765571999658003</v>
+        <v>0.249594085114505</v>
       </c>
       <c r="N13" t="n">
-        <v>1.001532595777693</v>
+        <v>1.003062847246553</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1840736054921331</v>
+        <v>0.2602198220488132</v>
       </c>
       <c r="P13" t="n">
-        <v>200.9364415039389</v>
+        <v>199.5516773609023</v>
       </c>
       <c r="Q13" t="n">
-        <v>319.1673965161544</v>
+        <v>317.7826323731177</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.994937476531577</v>
+        <v>0.9903865448933603</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7311819952865161</v>
+        <v>0.7707892954633166</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9962226919067</v>
+        <v>0.8637184239805055</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9954932766128803</v>
+        <v>0.9876647824385282</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9956644389366267</v>
+        <v>0.9757772313043392</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03385311774412152</v>
+        <v>0.06428521856399021</v>
       </c>
       <c r="H14" t="n">
-        <v>1.797587235312163</v>
+        <v>1.53273303665505</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0165841616682459</v>
+        <v>0.1977980697455535</v>
       </c>
       <c r="J14" t="n">
-        <v>0.07435690068585483</v>
+        <v>0.1670856632919009</v>
       </c>
       <c r="K14" t="n">
-        <v>0.04547053117705037</v>
+        <v>0.1824418665187272</v>
       </c>
       <c r="L14" t="n">
-        <v>0.6612576103229035</v>
+        <v>0.4302936359652859</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1839921676162372</v>
+        <v>0.2535452988402471</v>
       </c>
       <c r="N14" t="n">
-        <v>1.00166439127729</v>
+        <v>1.003160587980265</v>
       </c>
       <c r="O14" t="n">
-        <v>0.1918250951079539</v>
+        <v>0.2643392471230002</v>
       </c>
       <c r="P14" t="n">
-        <v>200.7714483583289</v>
+        <v>199.4888511130593</v>
       </c>
       <c r="Q14" t="n">
-        <v>319.0024033705444</v>
+        <v>317.7198061252748</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_38_9_11</t>
+          <t>model_38_9_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9944184562426973</v>
+        <v>0.990082666367511</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7301116713528868</v>
+        <v>0.7700188276707314</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9964507790743267</v>
+        <v>0.8582983782946252</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9958338132138089</v>
+        <v>0.9867905560502892</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9959800415499123</v>
+        <v>0.9744688915792933</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03732380880572909</v>
+        <v>0.06631725566557697</v>
       </c>
       <c r="H15" t="n">
-        <v>1.804744496384731</v>
+        <v>1.537885158331746</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0155827515717058</v>
+        <v>0.2056646838977591</v>
       </c>
       <c r="J15" t="n">
-        <v>0.06873835167805142</v>
+        <v>0.178927424105462</v>
       </c>
       <c r="K15" t="n">
-        <v>0.04216055162487861</v>
+        <v>0.1922960638021599</v>
       </c>
       <c r="L15" t="n">
-        <v>0.7290923891279267</v>
+        <v>0.4383812624736296</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1931937079869039</v>
+        <v>0.257521369337725</v>
       </c>
       <c r="N15" t="n">
-        <v>1.001835028084593</v>
+        <v>1.003260493249037</v>
       </c>
       <c r="O15" t="n">
-        <v>0.2014183641020144</v>
+        <v>0.2684845871731564</v>
       </c>
       <c r="P15" t="n">
-        <v>200.5762477003585</v>
+        <v>199.4266102984093</v>
       </c>
       <c r="Q15" t="n">
-        <v>318.8072027125739</v>
+        <v>317.6575653106248</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_38_9_10</t>
+          <t>model_38_9_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9937508755444695</v>
+        <v>0.9897795567850791</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7288412790747925</v>
+        <v>0.7692942072510218</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9966968183310527</v>
+        <v>0.8532639297675895</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9961960305514426</v>
+        <v>0.9859756314075687</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9963164555128108</v>
+        <v>0.973251031740648</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04178792400870505</v>
+        <v>0.06834415083898998</v>
       </c>
       <c r="H16" t="n">
-        <v>1.813239615397966</v>
+        <v>1.542730698414914</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01450252334845925</v>
+        <v>0.2129716451904475</v>
       </c>
       <c r="J16" t="n">
-        <v>0.06276208992697688</v>
+        <v>0.1899659180585128</v>
       </c>
       <c r="K16" t="n">
-        <v>0.03863230663771806</v>
+        <v>0.2014687816244802</v>
       </c>
       <c r="L16" t="n">
-        <v>0.8044641433472597</v>
+        <v>0.4456778083442955</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2044209480672298</v>
+        <v>0.2614271425062631</v>
       </c>
       <c r="N16" t="n">
-        <v>1.002054506670311</v>
+        <v>1.003360145714495</v>
       </c>
       <c r="O16" t="n">
-        <v>0.2131235710361506</v>
+        <v>0.2725566371915442</v>
       </c>
       <c r="P16" t="n">
-        <v>200.3502957610083</v>
+        <v>199.3663985921598</v>
       </c>
       <c r="Q16" t="n">
-        <v>318.5812507732238</v>
+        <v>317.5973536043753</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_38_9_9</t>
+          <t>model_38_9_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9928968018420926</v>
+        <v>0.989482633650142</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7273295984579071</v>
+        <v>0.768616637623844</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9969609960747655</v>
+        <v>0.8486050163692601</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9965785147224744</v>
+        <v>0.9852191488368827</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9966726076857074</v>
+        <v>0.9721219053747241</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04749911878914694</v>
+        <v>0.07032967720951969</v>
       </c>
       <c r="H17" t="n">
-        <v>1.823348230643728</v>
+        <v>1.547261609631773</v>
       </c>
       <c r="I17" t="n">
-        <v>0.01334265862398652</v>
+        <v>0.2197335575796131</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0564514435712202</v>
+        <v>0.2002127897867123</v>
       </c>
       <c r="K17" t="n">
-        <v>0.03489705109760335</v>
+        <v>0.2099731736831627</v>
       </c>
       <c r="L17" t="n">
-        <v>0.8882187251197486</v>
+        <v>0.452266372107334</v>
       </c>
       <c r="M17" t="n">
-        <v>0.2179429255313118</v>
+        <v>0.2651974306239027</v>
       </c>
       <c r="N17" t="n">
-        <v>1.002335298024517</v>
+        <v>1.003457764279405</v>
       </c>
       <c r="O17" t="n">
-        <v>0.2272212070752308</v>
+        <v>0.276487434279924</v>
       </c>
       <c r="P17" t="n">
-        <v>200.0940882398421</v>
+        <v>199.3091228366567</v>
       </c>
       <c r="Q17" t="n">
-        <v>318.3250432520576</v>
+        <v>317.5400778488722</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_38_9_8</t>
+          <t>model_38_9_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9918091005980262</v>
+        <v>0.989195751140076</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7255262620733633</v>
+        <v>0.7679860073458284</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9972430947696052</v>
+        <v>0.8443063917891401</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9969788918772021</v>
+        <v>0.9845195408345859</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9970465853009283</v>
+        <v>0.971078639502081</v>
       </c>
       <c r="G18" t="n">
-        <v>0.05477258201662256</v>
+        <v>0.07224806187530382</v>
       </c>
       <c r="H18" t="n">
-        <v>1.835407149350773</v>
+        <v>1.551478637204649</v>
       </c>
       <c r="I18" t="n">
-        <v>0.01210411248317239</v>
+        <v>0.2259725494473538</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0498455790053896</v>
+        <v>0.2096892717802837</v>
       </c>
       <c r="K18" t="n">
-        <v>0.030974845744281</v>
+        <v>0.2178308787816884</v>
       </c>
       <c r="L18" t="n">
-        <v>0.9812940730961037</v>
+        <v>0.4582108596605126</v>
       </c>
       <c r="M18" t="n">
-        <v>0.2340354289773721</v>
+        <v>0.2687899958616463</v>
       </c>
       <c r="N18" t="n">
-        <v>1.002692898433526</v>
+        <v>1.003552081816961</v>
       </c>
       <c r="O18" t="n">
-        <v>0.2439988017090644</v>
+        <v>0.2802329424574736</v>
       </c>
       <c r="P18" t="n">
-        <v>199.8091310767958</v>
+        <v>199.2552995552094</v>
       </c>
       <c r="Q18" t="n">
-        <v>318.0400860890113</v>
+        <v>317.4862545674249</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_38_9_7</t>
+          <t>model_38_9_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9904292309971575</v>
+        <v>0.9889215724466605</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7233696140867447</v>
+        <v>0.7674016143636915</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9975419760682984</v>
+        <v>0.8403515560462054</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9973934324275492</v>
+        <v>0.9838745417793284</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9974352164494436</v>
+        <v>0.9701175943896597</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0639997763913468</v>
+        <v>0.07408149606064957</v>
       </c>
       <c r="H19" t="n">
-        <v>1.849828664367742</v>
+        <v>1.55538647576708</v>
       </c>
       <c r="I19" t="n">
-        <v>0.01079188280671683</v>
+        <v>0.2317125687438823</v>
       </c>
       <c r="J19" t="n">
-        <v>0.04300603109337098</v>
+        <v>0.2184260528247422</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0268989569500439</v>
+        <v>0.2250693107843123</v>
       </c>
       <c r="L19" t="n">
-        <v>1.084725623855367</v>
+        <v>0.46356998083044</v>
       </c>
       <c r="M19" t="n">
-        <v>0.2529817708676789</v>
+        <v>0.2721791616943692</v>
       </c>
       <c r="N19" t="n">
-        <v>1.003146554192715</v>
+        <v>1.003642222757262</v>
       </c>
       <c r="O19" t="n">
-        <v>0.2637517285979761</v>
+        <v>0.283766392096236</v>
       </c>
       <c r="P19" t="n">
-        <v>199.4977513790276</v>
+        <v>199.20517898729</v>
       </c>
       <c r="Q19" t="n">
-        <v>317.728706391243</v>
+        <v>317.4361339995054</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_38_9_6</t>
+          <t>model_38_9_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9886843609637136</v>
+        <v>0.9886618431797256</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7207844988795822</v>
+        <v>0.766861853424914</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9978559214173564</v>
+        <v>0.8367221312331997</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9978167964181823</v>
+        <v>0.9832815559355517</v>
       </c>
       <c r="F20" t="n">
-        <v>0.997833941086735</v>
+        <v>0.9692346822728705</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0756677303393743</v>
+        <v>0.07581830686458677</v>
       </c>
       <c r="H20" t="n">
-        <v>1.867115341661399</v>
+        <v>1.558995859650056</v>
       </c>
       <c r="I20" t="n">
-        <v>0.009413514853886872</v>
+        <v>0.2369802890276311</v>
       </c>
       <c r="J20" t="n">
-        <v>0.03602090431690985</v>
+        <v>0.2264582932401539</v>
       </c>
       <c r="K20" t="n">
-        <v>0.02271720958539836</v>
+        <v>0.2317192580542907</v>
       </c>
       <c r="L20" t="n">
-        <v>1.199671574930186</v>
+        <v>0.4684049836558989</v>
       </c>
       <c r="M20" t="n">
-        <v>0.2750776805547376</v>
+        <v>0.2753512427148038</v>
       </c>
       <c r="N20" t="n">
-        <v>1.003720210094122</v>
+        <v>1.003727613201186</v>
       </c>
       <c r="O20" t="n">
-        <v>0.2867883069052516</v>
+        <v>0.2870735151728234</v>
       </c>
       <c r="P20" t="n">
-        <v>199.1628069858382</v>
+        <v>199.15883100026</v>
       </c>
       <c r="Q20" t="n">
-        <v>317.3937619980537</v>
+        <v>317.3897860124755</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_38_9_5</t>
+          <t>model_38_9_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9864841427145609</v>
+        <v>0.9884174413811498</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7176786806381441</v>
+        <v>0.7663649020272347</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9981816357494711</v>
+        <v>0.83339670899125</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9982415333862198</v>
+        <v>0.9827375770031991</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9982362090897179</v>
+        <v>0.9684251212316124</v>
       </c>
       <c r="G21" t="n">
-        <v>0.09038059990253165</v>
+        <v>0.0774526228170295</v>
       </c>
       <c r="H21" t="n">
-        <v>1.887883962542874</v>
+        <v>1.562318975934589</v>
       </c>
       <c r="I21" t="n">
-        <v>0.007983475522163485</v>
+        <v>0.2418067822320575</v>
       </c>
       <c r="J21" t="n">
-        <v>0.02901312464260543</v>
+        <v>0.2338267146138353</v>
       </c>
       <c r="K21" t="n">
-        <v>0.01849830008238446</v>
+        <v>0.2378167372187767</v>
       </c>
       <c r="L21" t="n">
-        <v>1.32742597999418</v>
+        <v>0.472762814919199</v>
       </c>
       <c r="M21" t="n">
-        <v>0.300633663954208</v>
+        <v>0.2783031132003908</v>
       </c>
       <c r="N21" t="n">
-        <v>1.004443569518501</v>
+        <v>1.00380796447743</v>
       </c>
       <c r="O21" t="n">
-        <v>0.313432261426216</v>
+        <v>0.2901510528961961</v>
       </c>
       <c r="P21" t="n">
-        <v>198.8074512749252</v>
+        <v>199.1161776960882</v>
       </c>
       <c r="Q21" t="n">
-        <v>317.0384062871407</v>
+        <v>317.3471327083037</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_38_9_4</t>
+          <t>model_38_9_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9837165265694178</v>
+        <v>0.988188895303086</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7139393263109266</v>
+        <v>0.7659084809617526</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9985143080198718</v>
+        <v>0.8303569111069764</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9986575709063782</v>
+        <v>0.9822396869813566</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9986330906250761</v>
+        <v>0.967684525329402</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1088876618088044</v>
+        <v>0.07898091149340096</v>
       </c>
       <c r="H22" t="n">
-        <v>1.912889042147121</v>
+        <v>1.565371065701093</v>
       </c>
       <c r="I22" t="n">
-        <v>0.00652288756412656</v>
+        <v>0.2462187223598992</v>
       </c>
       <c r="J22" t="n">
-        <v>0.02214887806904772</v>
+        <v>0.2405708424844133</v>
       </c>
       <c r="K22" t="n">
-        <v>0.01433588281658714</v>
+        <v>0.2433947824221563</v>
       </c>
       <c r="L22" t="n">
-        <v>1.469426850085126</v>
+        <v>0.4766950439867298</v>
       </c>
       <c r="M22" t="n">
-        <v>0.3299813052413794</v>
+        <v>0.2810354274702764</v>
       </c>
       <c r="N22" t="n">
-        <v>1.005353470716904</v>
+        <v>1.003883102914054</v>
       </c>
       <c r="O22" t="n">
-        <v>0.3440292925609748</v>
+        <v>0.292999687441221</v>
       </c>
       <c r="P22" t="n">
-        <v>198.4348771076401</v>
+        <v>199.0770981647547</v>
       </c>
       <c r="Q22" t="n">
-        <v>316.6658321198556</v>
+        <v>317.3080531769702</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_38_9_3</t>
+          <t>model_38_9_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9802423695326077</v>
+        <v>0.9879762256440553</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7094277408782922</v>
+        <v>0.7654902930915214</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9988466383165999</v>
+        <v>0.8275827408339173</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9990516984855112</v>
+        <v>0.9817848091495123</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9990126665498893</v>
+        <v>0.9670082013183505</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1321193659109753</v>
+        <v>0.08040303448259217</v>
       </c>
       <c r="H23" t="n">
-        <v>1.943058034709087</v>
+        <v>1.568167489914907</v>
       </c>
       <c r="I23" t="n">
-        <v>0.00506380103158528</v>
+        <v>0.2502451325408183</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0156461259048243</v>
+        <v>0.2467323523136267</v>
       </c>
       <c r="K23" t="n">
-        <v>0.01035496346820479</v>
+        <v>0.2484887424272225</v>
       </c>
       <c r="L23" t="n">
-        <v>1.627274533839492</v>
+        <v>0.4802389560559038</v>
       </c>
       <c r="M23" t="n">
-        <v>0.3634822772996991</v>
+        <v>0.2835542884221506</v>
       </c>
       <c r="N23" t="n">
-        <v>1.006495659331745</v>
+        <v>1.003953021706064</v>
       </c>
       <c r="O23" t="n">
-        <v>0.3789564703563896</v>
+        <v>0.2956257815185775</v>
       </c>
       <c r="P23" t="n">
-        <v>198.0480989556255</v>
+        <v>199.0414067223773</v>
       </c>
       <c r="Q23" t="n">
-        <v>316.279053967841</v>
+        <v>317.2723617345928</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_38_9_2</t>
+          <t>model_38_9_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9758893871295202</v>
+        <v>0.9877791744698655</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7039737647232859</v>
+        <v>0.7651079347720211</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9991681955418628</v>
+        <v>0.8250549110501937</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9994069297737167</v>
+        <v>0.9813699522854165</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9993593922907529</v>
+        <v>0.9663915903744923</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1612277792840622</v>
+        <v>0.08172071659173648</v>
       </c>
       <c r="H24" t="n">
-        <v>1.979528798370866</v>
+        <v>1.570724321758004</v>
       </c>
       <c r="I24" t="n">
-        <v>0.003652013356967961</v>
+        <v>0.2539140059606143</v>
       </c>
       <c r="J24" t="n">
-        <v>0.009785127714189048</v>
+        <v>0.2523517614536114</v>
       </c>
       <c r="K24" t="n">
-        <v>0.006718570535578504</v>
+        <v>0.2531329535381314</v>
       </c>
       <c r="L24" t="n">
-        <v>1.802766395420431</v>
+        <v>0.4834293910517906</v>
       </c>
       <c r="M24" t="n">
-        <v>0.4015317911250144</v>
+        <v>0.2858683553521384</v>
       </c>
       <c r="N24" t="n">
-        <v>1.00792677683413</v>
+        <v>1.004017805653743</v>
       </c>
       <c r="O24" t="n">
-        <v>0.4186258307586005</v>
+        <v>0.2980383630685539</v>
       </c>
       <c r="P24" t="n">
-        <v>197.649874271383</v>
+        <v>199.0088954804102</v>
       </c>
       <c r="Q24" t="n">
-        <v>315.8808292835984</v>
+        <v>317.2398504926256</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_38_9_1</t>
+          <t>model_38_9_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9704438621487399</v>
+        <v>0.9875971955934185</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6973681942310765</v>
+        <v>0.7647589192555091</v>
       </c>
       <c r="D25" t="n">
-        <v>0.999463955494354</v>
+        <v>0.8227537615501372</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9997018163413225</v>
+        <v>0.980992085417891</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9996532520725345</v>
+        <v>0.9658301068008711</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1976420299048774</v>
+        <v>0.08293761017647309</v>
       </c>
       <c r="H25" t="n">
-        <v>2.023700278668124</v>
+        <v>1.573058190123988</v>
       </c>
       <c r="I25" t="n">
-        <v>0.002353487860515483</v>
+        <v>0.2572538772961352</v>
       </c>
       <c r="J25" t="n">
-        <v>0.004919763382371493</v>
+        <v>0.2574701256723133</v>
       </c>
       <c r="K25" t="n">
-        <v>0.003636625621443487</v>
+        <v>0.2573619544619358</v>
       </c>
       <c r="L25" t="n">
-        <v>1.997901688608084</v>
+        <v>0.4863101657019517</v>
       </c>
       <c r="M25" t="n">
-        <v>0.4445694882747549</v>
+        <v>0.2879889063427151</v>
       </c>
       <c r="N25" t="n">
-        <v>1.009717086416853</v>
+        <v>1.004077634325451</v>
       </c>
       <c r="O25" t="n">
-        <v>0.4634957317763204</v>
+        <v>0.300249190304945</v>
       </c>
       <c r="P25" t="n">
-        <v>197.2425956286769</v>
+        <v>198.9793332769258</v>
       </c>
       <c r="Q25" t="n">
-        <v>315.4735506408924</v>
+        <v>317.2102882891413</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_38_9_0</t>
+          <t>model_38_9_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9636411053720909</v>
+        <v>0.9874296973815351</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6893532960910436</v>
+        <v>0.7644408631959116</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9997128115149003</v>
+        <v>0.8206621129570686</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999097768785192</v>
+        <v>0.9806483998519004</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9998689195354995</v>
+        <v>0.9653195232016749</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2431320957941435</v>
+        <v>0.08405767149059667</v>
       </c>
       <c r="H26" t="n">
-        <v>2.077295939435738</v>
+        <v>1.57518503245903</v>
       </c>
       <c r="I26" t="n">
-        <v>0.001260892717382605</v>
+        <v>0.2602896805674138</v>
       </c>
       <c r="J26" t="n">
-        <v>0.00148860072102143</v>
+        <v>0.2621254899146708</v>
       </c>
       <c r="K26" t="n">
-        <v>0.001374746719202018</v>
+        <v>0.2612075852410423</v>
       </c>
       <c r="L26" t="n">
-        <v>2.214952963631938</v>
+        <v>0.4889015409614232</v>
       </c>
       <c r="M26" t="n">
-        <v>0.4930842684512897</v>
+        <v>0.2899270106261172</v>
       </c>
       <c r="N26" t="n">
-        <v>1.011953609192737</v>
+        <v>1.004132702230728</v>
       </c>
       <c r="O26" t="n">
-        <v>0.5140758865844102</v>
+        <v>0.3022698037001206</v>
       </c>
       <c r="P26" t="n">
-        <v>196.8283007584993</v>
+        <v>198.9525043007055</v>
       </c>
       <c r="Q26" t="n">
-        <v>315.0592557707147</v>
+        <v>317.183459312921</v>
       </c>
     </row>
   </sheetData>
